--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -58,15 +58,9 @@
     <t>Reportfile</t>
   </si>
   <si>
-    <t>ATUPropertiesPath</t>
-  </si>
-  <si>
     <t>Report Configuration</t>
   </si>
   <si>
-    <t>D:\\Tookitaki\\atu.properties</t>
-  </si>
-  <si>
     <t>LoginUsername</t>
   </si>
   <si>
@@ -131,6 +125,12 @@
   </si>
   <si>
     <t>Emailable Report</t>
+  </si>
+  <si>
+    <t>Screenshots path</t>
+  </si>
+  <si>
+    <t>D:\\Tookitaki\\test-output</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,30 +1187,30 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,52 +1234,52 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>1</v>
@@ -1290,28 +1290,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
